--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -1,60 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19107" windowHeight="8846"/>
+    <workbookView windowWidth="14400" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
-  <si>
-    <t>功能序号</t>
-  </si>
-  <si>
-    <t>功能名称</t>
-  </si>
-  <si>
-    <t>子功能名称</t>
-  </si>
-  <si>
-    <t>功能描述</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
-    <t>开发状态</t>
-  </si>
-  <si>
-    <t>滞后原因</t>
-  </si>
-  <si>
-    <t>xxxx项目组第1次迭代开发计划表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+  <si>
+    <t>打卡签到项目组第1次迭代开发计划表</t>
   </si>
   <si>
     <t>迭代时间：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2018.</t>
     </r>
     <r>
@@ -66,14 +40,67 @@
       </rPr>
       <t>6.4 - 2018.6.6</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能序号</t>
+  </si>
+  <si>
+    <t>功能名称</t>
+  </si>
+  <si>
+    <t>子功能名称</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>开发状态</t>
+  </si>
+  <si>
+    <t>滞后原因</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>签到历史显示</t>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>补签</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>首页模板</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -102,18 +129,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +298,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -137,38 +495,49 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -176,14 +545,114 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,83 +660,226 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,44 +887,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1_1" xfId="2"/>
-    <cellStyle name="常规_Sheet1_3" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1" xfId="49"/>
+    <cellStyle name="常规_Sheet1_1" xfId="50"/>
+    <cellStyle name="常规_Sheet1_3" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -603,259 +1238,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.2" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.9" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.95" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="29.95" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="16" t="s">
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6"/>
+    <row r="12" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6"/>
+    <row r="13" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6"/>
+    <row r="14" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="24">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13">
       <formula1>"已完成,开发中,未开始,滞后"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19107" windowHeight="8846"/>
+    <workbookView windowWidth="19785" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+  <si>
+    <t>签到打卡项目组第1次迭代开发计划表</t>
+  </si>
+  <si>
+    <t>迭代时间：</t>
+  </si>
+  <si>
+    <t>2019.4.1 - 2018.5.5</t>
+  </si>
   <si>
     <t>功能序号</t>
   </si>
@@ -43,37 +52,99 @@
     <t>滞后原因</t>
   </si>
   <si>
-    <t>xxxx项目组第1次迭代开发计划表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>迭代时间：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2018.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.4 - 2018.6.6</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>软件框架
+搭建</t>
+  </si>
+  <si>
+    <t>登录页面</t>
+  </si>
+  <si>
+    <t>在账号框输入账号，密码框输入密码即可登录</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>首页设计布局，简介，点击相应按钮进入对应页面</t>
+  </si>
+  <si>
+    <t>签到专区设计</t>
+  </si>
+  <si>
+    <t>点击签到按钮进行签到</t>
+  </si>
+  <si>
+    <t>管理员功能实现</t>
+  </si>
+  <si>
+    <t>通过学生管理可以添加以及查找相应学生，查看打卡日志记录</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>签到功能</t>
+  </si>
+  <si>
+    <t>点击头像进行签到，可查看签到状态及打卡记录</t>
+  </si>
+  <si>
+    <t>用户个人信息页面</t>
+  </si>
+  <si>
+    <t>可查看用户个人信息</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>查看用户</t>
+  </si>
+  <si>
+    <t>查看所有用户打卡状态及打卡记录</t>
+  </si>
+  <si>
+    <t>管理用户</t>
+  </si>
+  <si>
+    <t>可进行删除，添加用户</t>
+  </si>
+  <si>
+    <t>登录及退出登录</t>
+  </si>
+  <si>
+    <t>验证账号是否正确</t>
+  </si>
+  <si>
+    <t>点击登录按钮输入正确的账号</t>
+  </si>
+  <si>
+    <t>密码格式是否正确</t>
+  </si>
+  <si>
+    <t>在账号正确的前提下密码框输入正确的密码格式即可正常登录</t>
+  </si>
+  <si>
+    <t>退出登录功能</t>
+  </si>
+  <si>
+    <t>在首页页面点击退出按钮，即可成功退出登录</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -102,18 +173,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +342,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -137,38 +539,49 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -176,14 +589,105 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,83 +695,238 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,44 +934,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1_1" xfId="2"/>
-    <cellStyle name="常规_Sheet1_3" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1" xfId="49"/>
+    <cellStyle name="常规_Sheet1_1" xfId="50"/>
+    <cellStyle name="常规_Sheet1_3" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -603,259 +1285,354 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.2" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.9" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.95" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="29.95" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="16" t="s">
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11">
+        <v>43525</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43526</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11">
+        <v>43527</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43529</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11">
+        <v>43532</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43539</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11">
+        <v>43543</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43549</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>43552</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43554</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
+        <v>43557</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43559</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
+        <v>43560</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43561</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14">
+        <v>43565</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43570</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14">
+        <v>43575</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43578</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6"/>
+    <row r="12" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14">
+        <v>43580</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43582</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6"/>
+    <row r="13" ht="39.95" customHeight="1" spans="1:9">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14">
+        <v>43583</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43585</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6"/>
+    <row r="14" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="24">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10 H11:H13">
       <formula1>"已完成,开发中,未开始,滞后"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -22,7 +22,7 @@
     <t>迭代时间：</t>
   </si>
   <si>
-    <t>2019.4.1 - 2018.5.5</t>
+    <t>2019.4.1 - 2019.5.5</t>
   </si>
   <si>
     <t>功能序号</t>
@@ -140,9 +140,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -173,9 +173,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,22 +214,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,30 +247,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -280,12 +263,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -295,35 +301,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,21 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -653,17 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,11 +662,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,171 +711,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="7515"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
-  <si>
-    <t>签到打卡项目组第1次迭代开发计划表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+  <si>
+    <t>打卡签到项目组第1次迭代开发计划表</t>
   </si>
   <si>
     <t>迭代时间：</t>
   </si>
   <si>
-    <t>2019.4.1 - 2019.5.5</t>
+    <t>2019.6.4-2019.6.6</t>
   </si>
   <si>
     <t>功能序号</t>
@@ -52,86 +52,106 @@
     <t>滞后原因</t>
   </si>
   <si>
-    <t>软件框架
-搭建</t>
-  </si>
-  <si>
-    <t>登录页面</t>
-  </si>
-  <si>
-    <t>在账号框输入账号，密码框输入密码即可登录</t>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>可以实行基本的签到功能</t>
+  </si>
+  <si>
+    <t>林申泽</t>
+  </si>
+  <si>
+    <t>2019.4.12</t>
+  </si>
+  <si>
+    <t>2019.4.19</t>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>首页设计布局，简介，点击相应按钮进入对应页面</t>
-  </si>
-  <si>
-    <t>签到专区设计</t>
-  </si>
-  <si>
-    <t>点击签到按钮进行签到</t>
-  </si>
-  <si>
-    <t>管理员功能实现</t>
-  </si>
-  <si>
-    <t>通过学生管理可以添加以及查找相应学生，查看打卡日志记录</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>签到功能</t>
-  </si>
-  <si>
-    <t>点击头像进行签到，可查看签到状态及打卡记录</t>
-  </si>
-  <si>
-    <t>用户个人信息页面</t>
-  </si>
-  <si>
-    <t>可查看用户个人信息</t>
-  </si>
-  <si>
-    <t>管理员登录</t>
-  </si>
-  <si>
-    <t>查看用户</t>
-  </si>
-  <si>
-    <t>查看所有用户打卡状态及打卡记录</t>
-  </si>
-  <si>
-    <t>管理用户</t>
-  </si>
-  <si>
-    <t>可进行删除，添加用户</t>
-  </si>
-  <si>
-    <t>登录及退出登录</t>
-  </si>
-  <si>
-    <t>验证账号是否正确</t>
-  </si>
-  <si>
-    <t>点击登录按钮输入正确的账号</t>
-  </si>
-  <si>
-    <t>密码格式是否正确</t>
-  </si>
-  <si>
-    <t>在账号正确的前提下密码框输入正确的密码格式即可正常登录</t>
-  </si>
-  <si>
-    <t>退出登录功能</t>
-  </si>
-  <si>
-    <t>在首页页面点击退出按钮，即可成功退出登录</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>签到历史显示</t>
+  </si>
+  <si>
+    <t>可以查看签到历史</t>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>补签</t>
+  </si>
+  <si>
+    <t>可以在没有签到的那天进行补签</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>可以删除签到记录</t>
+  </si>
+  <si>
+    <t>施俊杰</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>输入登录账号密码</t>
+  </si>
+  <si>
+    <t>清除输入的错误信息</t>
+  </si>
+  <si>
+    <t>王静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页 </t>
+  </si>
+  <si>
+    <t>跳转</t>
+  </si>
+  <si>
+    <t>可以跳转到其他页面，比如签到页面</t>
+  </si>
+  <si>
+    <t>退出登录</t>
+  </si>
+  <si>
+    <t>退出账号</t>
+  </si>
+  <si>
+    <t>刘佳莉</t>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <t>输入信息</t>
+  </si>
+  <si>
+    <t>输入个人信息</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>进行查询</t>
+  </si>
+  <si>
+    <t>余冠琪</t>
+  </si>
+  <si>
+    <t>信息输出</t>
+  </si>
+  <si>
+    <t>可查看到自己的基本信息</t>
   </si>
 </sst>
 </file>
@@ -140,8 +160,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -173,11 +193,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,7 +223,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,39 +297,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,87 +329,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -344,19 +364,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,163 +502,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +637,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -634,30 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,186 +731,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,9 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,14 +930,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,7 +1311,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1326,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="22"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -1361,258 +1378,282 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11">
-        <v>43525</v>
-      </c>
-      <c r="G3" s="11">
-        <v>43526</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11">
-        <v>43527</v>
-      </c>
-      <c r="G4" s="11">
-        <v>43529</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11">
-        <v>43532</v>
-      </c>
-      <c r="G5" s="11">
-        <v>43539</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11">
-        <v>43543</v>
-      </c>
-      <c r="G6" s="11">
-        <v>43549</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
-        <v>43552</v>
-      </c>
-      <c r="G7" s="14">
-        <v>43554</v>
-      </c>
-      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:9">
       <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
-        <v>43557</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43559</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" ht="39.95" customHeight="1" spans="1:9">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>43560</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43561</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" ht="39.95" customHeight="1" spans="1:9">
       <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>43565</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43570</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14">
-        <v>43575</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43578</v>
-      </c>
-      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14">
-        <v>43580</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43582</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>43583</v>
-      </c>
-      <c r="G13" s="14">
-        <v>43585</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1627,7 +1668,7 @@
     <mergeCell ref="B11:B13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10 H11:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13">
       <formula1>"已完成,开发中,未开始,滞后"</formula1>
     </dataValidation>
   </dataValidations>
